--- a/data/trans_orig/P14A34-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A34-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{961B172B-FBC1-463E-B0CE-81A918454DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8D35A24-C1D2-44FA-90EE-7BB3052D0F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA89D507-7A76-4970-B75C-E0795C00D90F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2212747C-2C23-422C-BE97-EB7572779DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -111,19 +111,19 @@
     <t>75,37%</t>
   </si>
   <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -132,37 +132,37 @@
     <t>85,34%</t>
   </si>
   <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -192,55 +192,55 @@
     <t>64,47%</t>
   </si>
   <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
   </si>
   <si>
     <t>35,53%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26E3116-9B60-4D14-8A37-067C5B2DE37B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE86C7E-C20A-4653-845A-CEFC22911721}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1793,7 +1793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D42979E-10B9-4C75-A02E-02DA45855534}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5962BAFD-8F2B-4632-9287-DF40E4C6992E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A34-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A34-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8D35A24-C1D2-44FA-90EE-7BB3052D0F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE8F8A2E-7B70-4C02-B2A0-FF082F4C5677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2212747C-2C23-422C-BE97-EB7572779DE8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6CFC296-D27B-4C28-8614-7F042FE08667}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -111,19 +111,19 @@
     <t>75,37%</t>
   </si>
   <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -132,43 +132,43 @@
     <t>85,34%</t>
   </si>
   <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por trastornos de próstata en 2015 (Tasa respuesta: 1,74%)</t>
+    <t>Población que recibe medicación o terapia por trastornos de próstata en 2016 (Tasa respuesta: 1,74%)</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -192,55 +192,55 @@
     <t>64,47%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
   <si>
     <t>35,53%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE86C7E-C20A-4653-845A-CEFC22911721}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDB91B0-67C2-4E4C-B85D-4509B56A7338}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1793,7 +1793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5962BAFD-8F2B-4632-9287-DF40E4C6992E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25870CAB-408E-4E49-9FF0-3EDA98B7A021}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
